--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Идентификатор операции</t>
   </si>
@@ -28,52 +28,46 @@
     <t>Последователи</t>
   </si>
   <si>
+    <t>171670</t>
+  </si>
+  <si>
+    <t>Монтаж трос стен вi-l дл.5986 серьга вверху (171670)</t>
+  </si>
+  <si>
+    <t>111281</t>
+  </si>
+  <si>
+    <t>165160, 161564</t>
+  </si>
+  <si>
+    <t>Монтаж балка несущая вi-l5м дл. (111281)</t>
+  </si>
+  <si>
+    <t>171670, 192057</t>
+  </si>
+  <si>
+    <t>100203</t>
+  </si>
+  <si>
+    <t>Монтаж планка натягивающая дл.4990 100х40 (100203)</t>
+  </si>
+  <si>
+    <t>161564</t>
+  </si>
+  <si>
+    <t>Монтаж панель стеклянная 1158х2735 мм с/с/а (161564)</t>
+  </si>
+  <si>
+    <t>165160</t>
+  </si>
+  <si>
+    <t>Монтаж дверь двухстворчатая e6/ev1 din 17611*алюминиево-стеклянная*длина 2380 мм*высота 2120 мм*co cтупенями*створки бок</t>
+  </si>
+  <si>
     <t>192057</t>
   </si>
   <si>
     <t>Монтаж алюминиевая направляющая для пола bi-level ii-уровень длина 4840 мм пр.285 к боковым стойкам (192057)</t>
-  </si>
-  <si>
-    <t>111281</t>
-  </si>
-  <si>
-    <t>100203</t>
-  </si>
-  <si>
-    <t>Монтаж планка натягивающая дл.4990 100х40 (100203)</t>
-  </si>
-  <si>
-    <t>165160, 171670, 161564, 111281</t>
-  </si>
-  <si>
-    <t>171670</t>
-  </si>
-  <si>
-    <t>Монтаж трос стен вi-l дл.5986 серьга вверху (171670)</t>
-  </si>
-  <si>
-    <t>100203, 165160, 161564</t>
-  </si>
-  <si>
-    <t>Монтаж балка несущая вi-l5м дл. (111281)</t>
-  </si>
-  <si>
-    <t>100203, 165160, 171670, 192057</t>
-  </si>
-  <si>
-    <t>165160</t>
-  </si>
-  <si>
-    <t>Монтаж дверь двухстворчатая e6/ev1 din 17611*алюминиево-стеклянная*длина 2380 мм*высота 2120 мм*co cтупенями*створки бок</t>
-  </si>
-  <si>
-    <t>171670, 111281</t>
-  </si>
-  <si>
-    <t>161564</t>
-  </si>
-  <si>
-    <t>Монтаж панель стеклянная 1158х2735 мм с/с/а (161564)</t>
   </si>
 </sst>
 </file>
@@ -440,15 +434,18 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -460,49 +457,46 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
